--- a/Excel/03-05-2024.xlsx
+++ b/Excel/03-05-2024.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acviss\Desktop\Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CE71D7D-7347-45B8-AB78-928964ABDA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8432FF4D-98F9-426A-A0E7-EE37647923C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64C5F2B1-EB2D-4377-86BF-047F307B03ED}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" xr2:uid="{64C5F2B1-EB2D-4377-86BF-047F307B03ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -435,9 +431,6 @@
     <t>M45-1MJ-60G</t>
   </si>
   <si>
-    <t>10 ML</t>
-  </si>
-  <si>
     <t>1223IB9006</t>
   </si>
   <si>
@@ -541,6 +534,9 @@
   </si>
   <si>
     <t>2024-05-02 10:58:51.448487+00:00</t>
+  </si>
+  <si>
+    <t>10ML</t>
   </si>
 </sst>
 </file>
@@ -894,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A180CC78-D3C7-4161-8F4B-0AA78565D7F9}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1934,7 +1930,7 @@
         <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F19">
         <v>11006845</v>
@@ -1943,25 +1939,25 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
         <v>134</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>135</v>
-      </c>
-      <c r="J19" t="s">
-        <v>136</v>
       </c>
       <c r="K19" t="s">
         <v>95</v>
       </c>
       <c r="M19" t="s">
+        <v>136</v>
+      </c>
+      <c r="N19" t="s">
         <v>137</v>
       </c>
-      <c r="N19" t="s">
-        <v>138</v>
-      </c>
       <c r="O19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
@@ -1973,24 +1969,24 @@
         <v>44000</v>
       </c>
       <c r="V19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
         <v>140</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>141</v>
-      </c>
-      <c r="C20" t="s">
-        <v>142</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F20">
         <v>11006845</v>
@@ -1999,25 +1995,25 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" t="s">
         <v>143</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>144</v>
-      </c>
-      <c r="J20" t="s">
-        <v>145</v>
       </c>
       <c r="K20" t="s">
         <v>95</v>
       </c>
       <c r="M20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N20" t="s">
         <v>146</v>
       </c>
-      <c r="N20" t="s">
-        <v>147</v>
-      </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -2029,24 +2025,24 @@
         <v>44000</v>
       </c>
       <c r="V20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
         <v>148</v>
       </c>
-      <c r="B21" t="s">
-        <v>149</v>
-      </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F21">
         <v>11006845</v>
@@ -2055,25 +2051,25 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" t="s">
         <v>143</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>144</v>
-      </c>
-      <c r="J21" t="s">
-        <v>145</v>
       </c>
       <c r="K21" t="s">
         <v>95</v>
       </c>
       <c r="M21" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21" t="s">
         <v>150</v>
       </c>
-      <c r="N21" t="s">
-        <v>151</v>
-      </c>
       <c r="O21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
@@ -2085,24 +2081,24 @@
         <v>44000</v>
       </c>
       <c r="V21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
         <v>152</v>
       </c>
-      <c r="B22" t="s">
-        <v>153</v>
-      </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F22">
         <v>11006845</v>
@@ -2111,25 +2107,25 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" t="s">
         <v>143</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>144</v>
-      </c>
-      <c r="J22" t="s">
-        <v>145</v>
       </c>
       <c r="K22" t="s">
         <v>95</v>
       </c>
       <c r="M22" t="s">
+        <v>153</v>
+      </c>
+      <c r="N22" t="s">
         <v>154</v>
       </c>
-      <c r="N22" t="s">
-        <v>155</v>
-      </c>
       <c r="O22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -2141,24 +2137,24 @@
         <v>44000</v>
       </c>
       <c r="V22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s">
         <v>156</v>
       </c>
-      <c r="B23" t="s">
-        <v>157</v>
-      </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F23">
         <v>11006845</v>
@@ -2167,25 +2163,25 @@
         <v>27</v>
       </c>
       <c r="H23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" t="s">
         <v>143</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>144</v>
-      </c>
-      <c r="J23" t="s">
-        <v>145</v>
       </c>
       <c r="K23" t="s">
         <v>95</v>
       </c>
       <c r="M23" t="s">
+        <v>157</v>
+      </c>
+      <c r="N23" t="s">
         <v>158</v>
       </c>
-      <c r="N23" t="s">
-        <v>159</v>
-      </c>
       <c r="O23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
@@ -2197,24 +2193,24 @@
         <v>44000</v>
       </c>
       <c r="V23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" t="s">
         <v>160</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>161</v>
-      </c>
-      <c r="C24" t="s">
-        <v>162</v>
       </c>
       <c r="D24" t="s">
         <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F24">
         <v>11006845</v>
@@ -2223,25 +2219,25 @@
         <v>27</v>
       </c>
       <c r="H24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" t="s">
         <v>143</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>144</v>
-      </c>
-      <c r="J24" t="s">
-        <v>145</v>
       </c>
       <c r="K24" t="s">
         <v>95</v>
       </c>
       <c r="M24" t="s">
+        <v>162</v>
+      </c>
+      <c r="N24" t="s">
         <v>163</v>
       </c>
-      <c r="N24" t="s">
-        <v>164</v>
-      </c>
       <c r="O24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -2253,24 +2249,24 @@
         <v>44000</v>
       </c>
       <c r="V24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" t="s">
         <v>165</v>
       </c>
-      <c r="B25" t="s">
-        <v>166</v>
-      </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F25">
         <v>11006845</v>
@@ -2279,25 +2275,25 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" t="s">
         <v>143</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>144</v>
-      </c>
-      <c r="J25" t="s">
-        <v>145</v>
       </c>
       <c r="K25" t="s">
         <v>95</v>
       </c>
       <c r="M25" t="s">
+        <v>166</v>
+      </c>
+      <c r="N25" t="s">
         <v>167</v>
       </c>
-      <c r="N25" t="s">
-        <v>168</v>
-      </c>
       <c r="O25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
@@ -2309,7 +2305,7 @@
         <v>44000</v>
       </c>
       <c r="V25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
